--- a/document/表结构.xlsx
+++ b/document/表结构.xlsx
@@ -7,22 +7,22 @@
     <workbookView windowWidth="20490" windowHeight="7785"/>
   </bookViews>
   <sheets>
-    <sheet name="用户表" sheetId="1" r:id="rId1"/>
+    <sheet name="用户" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="65">
-  <si>
-    <t>CJGIE-D102</t>
-  </si>
-  <si>
-    <t>输入项目名称</t>
-  </si>
-  <si>
-    <t>表格定义书</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="80">
+  <si>
+    <t>七趣</t>
+  </si>
+  <si>
+    <t>数据库名</t>
+  </si>
+  <si>
+    <t>sevenfunny_user</t>
   </si>
   <si>
     <t>表格名称</t>
@@ -68,6 +68,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="굴림"/>
+        <charset val="129"/>
+      </rPr>
       <t>用</t>
     </r>
     <r>
@@ -100,7 +105,66 @@
     <t>Yes</t>
   </si>
   <si>
+    <t>手机号</t>
+  </si>
+  <si>
+    <t>MOBILE</t>
+  </si>
+  <si>
+    <t>密码</t>
+  </si>
+  <si>
+    <t>PASSWORD</t>
+  </si>
+  <si>
+    <t>昵称</t>
+  </si>
+  <si>
+    <t>NICKNAME</t>
+  </si>
+  <si>
+    <t>性别</t>
+  </si>
+  <si>
+    <t>GENDER</t>
+  </si>
+  <si>
+    <t>出生日期</t>
+  </si>
+  <si>
+    <t>BIRTHDAY</t>
+  </si>
+  <si>
+    <t>邮箱</t>
+  </si>
+  <si>
+    <t>EMAIL</t>
+  </si>
+  <si>
+    <t>头像地址</t>
+  </si>
+  <si>
+    <t>AVATAR</t>
+  </si>
+  <si>
+    <t>简介</t>
+  </si>
+  <si>
+    <t>INTRO</t>
+  </si>
+  <si>
+    <t>注册日期</t>
+  </si>
+  <si>
+    <t>REG_DT</t>
+  </si>
+  <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="굴림"/>
+        <charset val="129"/>
+      </rPr>
       <t>用</t>
     </r>
     <r>
@@ -139,6 +203,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="굴림"/>
+        <charset val="129"/>
+      </rPr>
       <t>性</t>
     </r>
     <r>
@@ -158,6 +227,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="굴림"/>
+        <charset val="129"/>
+      </rPr>
       <t>身</t>
     </r>
     <r>
@@ -176,9 +250,6 @@
     <t>VARCHAR2(100)</t>
   </si>
   <si>
-    <t>出生日期</t>
-  </si>
-  <si>
     <t>BIRTH_DY</t>
   </si>
   <si>
@@ -239,9 +310,6 @@
     <t>EMERGENCY_CONTACT</t>
   </si>
   <si>
-    <t>头像地址</t>
-  </si>
-  <si>
     <t>IMAGE_URL</t>
   </si>
   <si>
@@ -252,6 +320,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="굴림"/>
+        <charset val="129"/>
+      </rPr>
       <t>登</t>
     </r>
     <r>
@@ -264,9 +337,6 @@
     </r>
   </si>
   <si>
-    <t>REG_DT</t>
-  </si>
-  <si>
     <t>date</t>
   </si>
   <si>
@@ -290,13 +360,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="#,##0_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="#,##0_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -314,7 +384,13 @@
       <b/>
       <sz val="10"/>
       <color rgb="FF808080"/>
-      <name val="굴림"/>
+      <name val="宋体"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <name val="宋体"/>
       <charset val="129"/>
     </font>
     <font>
@@ -346,11 +422,9 @@
       <charset val="129"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="10"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="129"/>
     </font>
     <font>
       <b/>
@@ -469,14 +543,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -489,6 +556,20 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -511,6 +592,156 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -535,66 +766,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -602,96 +773,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -862,10 +943,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -874,137 +955,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1026,79 +1107,85 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1420,18 +1507,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:H5"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="11.25" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="15.25" customWidth="1"/>
+    <col min="5" max="5" width="9.25" customWidth="1"/>
+    <col min="6" max="6" width="4.375" customWidth="1"/>
+    <col min="7" max="7" width="7.625" customWidth="1"/>
+    <col min="8" max="8" width="12.125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -1439,608 +1533,784 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
+        <v>0</v>
+      </c>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
     </row>
     <row r="2" ht="22.5" spans="1:10">
       <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="10"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
     </row>
     <row r="4" customHeight="1" spans="1:10">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="12" t="s">
+      <c r="B4" s="12"/>
+      <c r="C4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
     </row>
     <row r="5" customHeight="1" spans="1:10">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="15" t="s">
+      <c r="B5" s="12"/>
+      <c r="C5" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="16"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="G7" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="21" t="s">
+      <c r="H7" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="22">
+      <c r="A8" s="23">
         <v>1</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="22">
+      <c r="A9" s="23">
         <v>2</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="23">
+        <v>3</v>
+      </c>
+      <c r="B10" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="C10" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="23">
+        <v>4</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="23">
+        <v>5</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="23">
+        <v>6</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="23">
+        <v>7</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="23">
+        <v>8</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="23">
+        <v>9</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="23">
+        <v>10</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="23"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="23">
+        <v>2</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="24"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="22">
+      <c r="F19" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" s="25"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="23">
         <v>3</v>
       </c>
-      <c r="B10" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="24" t="s">
+      <c r="B20" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="24"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="26">
+      <c r="F20" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="G20" s="25"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="28">
         <v>4</v>
       </c>
-      <c r="B11" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="27" t="s">
+      <c r="B21" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="G21" s="30"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="23">
+        <v>5</v>
+      </c>
+      <c r="B22" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="28" t="s">
+      <c r="C22" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="28"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="22">
-        <v>5</v>
-      </c>
-      <c r="B12" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="24" t="s">
+      <c r="F22" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="G22" s="25"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="23">
+        <v>6</v>
+      </c>
+      <c r="B23" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="G23" s="25"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="23">
+        <v>7</v>
+      </c>
+      <c r="B24" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="G24" s="25"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="23">
+        <v>8</v>
+      </c>
+      <c r="B25" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="G25" s="25"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="28">
+        <v>9</v>
+      </c>
+      <c r="B26" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="G26" s="30"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="28">
+        <v>10</v>
+      </c>
+      <c r="B27" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="G27" s="30"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="23">
+        <v>11</v>
+      </c>
+      <c r="B28" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="E28" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="G28" s="25"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="23">
+        <v>12</v>
+      </c>
+      <c r="B29" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="G29" s="25"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="28">
+        <v>13</v>
+      </c>
+      <c r="B30" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="E30" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="G30" s="30"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="23">
+        <v>14</v>
+      </c>
+      <c r="B31" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E31" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="G31" s="25"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="23">
+        <v>15</v>
+      </c>
+      <c r="B32" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="E32" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="24"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="22">
-        <v>6</v>
-      </c>
-      <c r="B13" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="24" t="s">
+      <c r="F32" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="G32" s="25"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="23">
+        <v>16</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="E33" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="24"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="22">
-        <v>7</v>
-      </c>
-      <c r="B14" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="24" t="s">
+      <c r="F33" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="G33" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="H33" s="26"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="23">
+        <v>17</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="D34" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" s="24"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="22">
-        <v>8</v>
-      </c>
-      <c r="B15" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="24" t="s">
+      <c r="F34" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="G34" s="25"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="23">
+        <v>18</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="D35" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="E35" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" s="24"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="26">
-        <v>9</v>
-      </c>
-      <c r="B16" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" s="28"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="26">
-        <v>10</v>
-      </c>
-      <c r="B17" s="31" t="s">
+      <c r="F35" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="G17" s="28"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="22">
-        <v>11</v>
-      </c>
-      <c r="B18" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="G18" s="24"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="22">
-        <v>12</v>
-      </c>
-      <c r="B19" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="G19" s="24"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="26">
-        <v>13</v>
-      </c>
-      <c r="B20" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="G20" s="28"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="22">
-        <v>14</v>
-      </c>
-      <c r="B21" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="G21" s="24"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="22">
-        <v>15</v>
-      </c>
-      <c r="B22" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="D22" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E22" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="G22" s="24"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="22">
-        <v>16</v>
-      </c>
-      <c r="B23" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="E23" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="G23" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="H23" s="25"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="22">
-        <v>17</v>
-      </c>
-      <c r="B24" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="D24" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="G24" s="24"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="22">
-        <v>18</v>
-      </c>
-      <c r="B25" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="C25" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="D25" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="E25" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="G25" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="H25" s="25"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="22"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="22"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="22"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="22"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="22"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
+      <c r="G35" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="H35" s="26"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="23"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="23"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="23"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="21"/>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="23"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="23"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/document/表结构.xlsx
+++ b/document/表结构.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785"/>
+    <workbookView windowWidth="20490" windowHeight="7785" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="用户" sheetId="1" r:id="rId1"/>
+    <sheet name="话题" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="94">
   <si>
     <t>七趣</t>
   </si>
@@ -96,7 +97,7 @@
     <t>USER_ID</t>
   </si>
   <si>
-    <t>VARCHAR2(10)</t>
+    <t>VARCHAR(20)</t>
   </si>
   <si>
     <t>NOT NULL</t>
@@ -111,6 +112,9 @@
     <t>MOBILE</t>
   </si>
   <si>
+    <t>VARCHAR(100)</t>
+  </si>
+  <si>
     <t>密码</t>
   </si>
   <si>
@@ -129,12 +133,18 @@
     <t>GENDER</t>
   </si>
   <si>
+    <t>CHAR(1)</t>
+  </si>
+  <si>
     <t>出生日期</t>
   </si>
   <si>
     <t>BIRTHDAY</t>
   </si>
   <si>
+    <t>DATETIME</t>
+  </si>
+  <si>
     <t>邮箱</t>
   </si>
   <si>
@@ -153,10 +163,25 @@
     <t>INTRO</t>
   </si>
   <si>
-    <t>注册日期</t>
+    <t>TEXT</t>
+  </si>
+  <si>
+    <t>录入日期</t>
   </si>
   <si>
     <t>REG_DT</t>
+  </si>
+  <si>
+    <t>更新日期</t>
+  </si>
+  <si>
+    <t>UPD_DT</t>
+  </si>
+  <si>
+    <t>最后登录日期</t>
+  </si>
+  <si>
+    <t>LAST_DT</t>
   </si>
   <si>
     <r>
@@ -253,6 +278,9 @@
     <t>BIRTH_DY</t>
   </si>
   <si>
+    <t>VARCHAR2(10)</t>
+  </si>
+  <si>
     <t>国籍</t>
   </si>
   <si>
@@ -352,7 +380,32 @@
     <t>更改日期</t>
   </si>
   <si>
-    <t>UPD_DT</t>
+    <t>sevenfunny_topic</t>
+  </si>
+  <si>
+    <t>话题表</t>
+  </si>
+  <si>
+    <t>SF_TOPIC_INFO</t>
+  </si>
+  <si>
+    <t>话题详情</t>
+  </si>
+  <si>
+    <r>
+      <t>话题</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="굴림"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+  </si>
+  <si>
+    <t>TOPIC_ID</t>
   </si>
 </sst>
 </file>
@@ -360,11 +413,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="#,##0_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -428,14 +481,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -445,52 +490,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -506,9 +505,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -529,13 +528,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -549,9 +541,45 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -564,8 +592,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -592,175 +645,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -838,41 +891,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -888,17 +911,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -935,6 +947,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -943,10 +996,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -955,133 +1008,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1158,6 +1211,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1166,9 +1222,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1507,10 +1560,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1646,23 +1699,23 @@
       <c r="A8" s="23">
         <v>1</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="25" t="s">
+      <c r="E8" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="25"/>
-      <c r="H8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="27"/>
       <c r="I8" s="21"/>
       <c r="J8" s="21"/>
     </row>
@@ -1670,17 +1723,19 @@
       <c r="A9" s="23">
         <v>2</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="26"/>
+      <c r="D9" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="27"/>
       <c r="I9" s="21"/>
       <c r="J9" s="21"/>
     </row>
@@ -1688,17 +1743,19 @@
       <c r="A10" s="23">
         <v>3</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="27"/>
       <c r="I10" s="21"/>
       <c r="J10" s="21"/>
     </row>
@@ -1706,17 +1763,19 @@
       <c r="A11" s="23">
         <v>4</v>
       </c>
-      <c r="B11" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="24" t="s">
+      <c r="B11" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="26"/>
+      <c r="C11" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="27"/>
       <c r="I11" s="21"/>
       <c r="J11" s="21"/>
     </row>
@@ -1724,17 +1783,19 @@
       <c r="A12" s="23">
         <v>5</v>
       </c>
-      <c r="B12" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="24" t="s">
+      <c r="B12" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="26"/>
+      <c r="C12" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="27"/>
       <c r="I12" s="21"/>
       <c r="J12" s="21"/>
     </row>
@@ -1742,17 +1803,19 @@
       <c r="A13" s="23">
         <v>6</v>
       </c>
-      <c r="B13" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="26"/>
+      <c r="B13" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="27"/>
       <c r="I13" s="21"/>
       <c r="J13" s="21"/>
     </row>
@@ -1760,17 +1823,19 @@
       <c r="A14" s="23">
         <v>7</v>
       </c>
-      <c r="B14" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="26"/>
+      <c r="B14" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="27"/>
       <c r="I14" s="21"/>
       <c r="J14" s="21"/>
     </row>
@@ -1778,17 +1843,19 @@
       <c r="A15" s="23">
         <v>8</v>
       </c>
-      <c r="B15" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="26"/>
+      <c r="B15" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="27"/>
       <c r="I15" s="21"/>
       <c r="J15" s="21"/>
     </row>
@@ -1796,17 +1863,19 @@
       <c r="A16" s="23">
         <v>9</v>
       </c>
-      <c r="B16" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="26"/>
+      <c r="B16" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="27"/>
       <c r="I16" s="21"/>
       <c r="J16" s="21"/>
     </row>
@@ -1814,503 +1883,909 @@
       <c r="A17" s="23">
         <v>10</v>
       </c>
-      <c r="B17" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="26"/>
+      <c r="B17" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="27"/>
       <c r="I17" s="21"/>
       <c r="J17" s="21"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="23"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="26"/>
+      <c r="A18" s="23">
+        <v>11</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="27"/>
       <c r="I18" s="21"/>
       <c r="J18" s="21"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="23">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="E19" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="G19" s="25"/>
-      <c r="H19" s="26"/>
+        <v>46</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="27"/>
       <c r="I19" s="21"/>
       <c r="J19" s="21"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="23">
-        <v>3</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="E20" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="G20" s="25"/>
-      <c r="H20" s="26"/>
+      <c r="A20" s="23"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="27"/>
       <c r="I20" s="21"/>
       <c r="J20" s="21"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="28">
-        <v>4</v>
-      </c>
-      <c r="B21" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="29" t="s">
+      <c r="A21" s="23">
+        <v>2</v>
+      </c>
+      <c r="B21" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="30" t="s">
+      <c r="C21" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="E21" s="30" t="s">
+      <c r="D21" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="G21" s="30"/>
-      <c r="H21" s="31"/>
+      <c r="F21" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="G21" s="26"/>
+      <c r="H21" s="27"/>
       <c r="I21" s="21"/>
       <c r="J21" s="21"/>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="23">
-        <v>5</v>
-      </c>
-      <c r="B22" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E22" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="26"/>
+      <c r="F22" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="G22" s="26"/>
+      <c r="H22" s="27"/>
       <c r="I22" s="21"/>
       <c r="J22" s="21"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="23">
-        <v>6</v>
-      </c>
-      <c r="B23" s="32" t="s">
+      <c r="A23" s="28">
+        <v>4</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="D23" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="E23" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="26"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="31"/>
       <c r="I23" s="21"/>
       <c r="J23" s="21"/>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="23">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B24" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="E24" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="G24" s="25"/>
-      <c r="H24" s="26"/>
+      <c r="F24" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="G24" s="26"/>
+      <c r="H24" s="27"/>
       <c r="I24" s="21"/>
       <c r="J24" s="21"/>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="23">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B25" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="C25" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="D25" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="E25" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="F25" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="G25" s="25"/>
-      <c r="H25" s="26"/>
+      <c r="F25" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="G25" s="26"/>
+      <c r="H25" s="27"/>
       <c r="I25" s="21"/>
       <c r="J25" s="21"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="28">
-        <v>9</v>
-      </c>
-      <c r="B26" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="C26" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="D26" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="E26" s="30" t="s">
+      <c r="A26" s="23">
+        <v>7</v>
+      </c>
+      <c r="B26" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="F26" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="G26" s="30"/>
-      <c r="H26" s="31"/>
+      <c r="F26" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="G26" s="26"/>
+      <c r="H26" s="27"/>
       <c r="I26" s="21"/>
       <c r="J26" s="21"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="28">
-        <v>10</v>
-      </c>
-      <c r="B27" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="C27" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="D27" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="E27" s="30" t="s">
+      <c r="A27" s="23">
+        <v>8</v>
+      </c>
+      <c r="B27" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="F27" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="G27" s="30"/>
-      <c r="H27" s="31"/>
+      <c r="F27" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="G27" s="26"/>
+      <c r="H27" s="27"/>
       <c r="I27" s="21"/>
       <c r="J27" s="21"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="23">
-        <v>11</v>
-      </c>
-      <c r="B28" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="C28" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="D28" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="E28" s="25" t="s">
+      <c r="A28" s="28">
+        <v>9</v>
+      </c>
+      <c r="B28" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="F28" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="G28" s="25"/>
-      <c r="H28" s="26"/>
+      <c r="F28" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="G28" s="30"/>
+      <c r="H28" s="31"/>
       <c r="I28" s="21"/>
       <c r="J28" s="21"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="23">
-        <v>12</v>
-      </c>
-      <c r="B29" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="C29" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="D29" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="E29" s="25" t="s">
+      <c r="A29" s="28">
+        <v>10</v>
+      </c>
+      <c r="B29" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="E29" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="F29" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="G29" s="25"/>
-      <c r="H29" s="26"/>
+      <c r="F29" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="G29" s="30"/>
+      <c r="H29" s="31"/>
       <c r="I29" s="21"/>
       <c r="J29" s="21"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="28">
+      <c r="A30" s="23">
+        <v>11</v>
+      </c>
+      <c r="B30" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="E30" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="C30" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="D30" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="E30" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="G30" s="30"/>
-      <c r="H30" s="31"/>
+      <c r="F30" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="G30" s="26"/>
+      <c r="H30" s="27"/>
       <c r="I30" s="21"/>
       <c r="J30" s="21"/>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="23">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B31" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="D31" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="E31" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="E31" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="F31" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="G31" s="25"/>
-      <c r="H31" s="26"/>
+      <c r="F31" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="G31" s="26"/>
+      <c r="H31" s="27"/>
       <c r="I31" s="21"/>
       <c r="J31" s="21"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="23">
-        <v>15</v>
-      </c>
-      <c r="B32" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="C32" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="D32" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E32" s="25" t="s">
+      <c r="A32" s="28">
         <v>13</v>
       </c>
-      <c r="F32" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="G32" s="25"/>
-      <c r="H32" s="26"/>
+      <c r="B32" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="E32" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="G32" s="30"/>
+      <c r="H32" s="31"/>
       <c r="I32" s="21"/>
       <c r="J32" s="21"/>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="23">
-        <v>16</v>
-      </c>
-      <c r="B33" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="C33" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="D33" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="E33" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="D33" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="E33" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="F33" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="G33" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="H33" s="26"/>
+      <c r="F33" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="G33" s="26"/>
+      <c r="H33" s="27"/>
       <c r="I33" s="21"/>
       <c r="J33" s="21"/>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="23">
-        <v>17</v>
-      </c>
-      <c r="B34" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="C34" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="D34" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E34" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="D34" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E34" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="F34" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="G34" s="25"/>
-      <c r="H34" s="26"/>
+      <c r="F34" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="G34" s="26"/>
+      <c r="H34" s="27"/>
       <c r="I34" s="21"/>
       <c r="J34" s="21"/>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="23">
-        <v>18</v>
-      </c>
-      <c r="B35" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="C35" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="D35" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="E35" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D35" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E35" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="F35" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="G35" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="H35" s="26"/>
+      <c r="F35" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="G35" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="H35" s="27"/>
       <c r="I35" s="21"/>
       <c r="J35" s="21"/>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="23"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
+      <c r="A36" s="23">
+        <v>17</v>
+      </c>
+      <c r="B36" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="C36" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="D36" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E36" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="26" t="s">
+        <v>51</v>
+      </c>
       <c r="G36" s="26"/>
-      <c r="H36" s="26"/>
+      <c r="H36" s="27"/>
       <c r="I36" s="21"/>
       <c r="J36" s="21"/>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="23"/>
-      <c r="B37" s="24"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="26"/>
+      <c r="A37" s="23">
+        <v>18</v>
+      </c>
+      <c r="B37" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E37" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="G37" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="H37" s="27"/>
       <c r="I37" s="21"/>
       <c r="J37" s="21"/>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="23"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="26"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
       <c r="I38" s="21"/>
       <c r="J38" s="21"/>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="23"/>
-      <c r="B39" s="24"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="26"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
       <c r="I39" s="21"/>
       <c r="J39" s="21"/>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="23"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="26"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
       <c r="I40" s="21"/>
       <c r="J40" s="21"/>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="23"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="21"/>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="23"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="21"/>
+      <c r="J42" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:H5"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <cols>
+    <col min="2" max="2" width="11.25" customWidth="1"/>
+    <col min="3" max="3" width="14.25" customWidth="1"/>
+    <col min="4" max="4" width="13.125" customWidth="1"/>
+    <col min="5" max="5" width="9.25" customWidth="1"/>
+    <col min="6" max="6" width="4.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" ht="24" spans="1:8">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="11"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="17"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="23">
+        <v>1</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="26"/>
+      <c r="H8" s="27"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="23">
+        <v>2</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="27"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="23">
+        <v>3</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="27"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="23">
+        <v>4</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="27"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="23">
+        <v>5</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="27"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="23">
+        <v>6</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="27"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="23">
+        <v>7</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="27"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="23">
+        <v>8</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="27"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="23">
+        <v>9</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="27"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="23">
+        <v>10</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="27"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="23">
+        <v>11</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="27"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="23">
+        <v>12</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="27"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="23"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/document/表结构.xlsx
+++ b/document/表结构.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785"/>
+    <workbookView windowWidth="20490" windowHeight="7785" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="用户" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="144">
   <si>
     <t>七趣</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>VARCHAR(100)</t>
+  </si>
+  <si>
+    <t>UNI</t>
   </si>
   <si>
     <t>密码</t>
@@ -437,6 +440,9 @@
     <t>label</t>
   </si>
   <si>
+    <t>VARCHAR(4)</t>
+  </si>
+  <si>
     <t>访问数</t>
   </si>
   <si>
@@ -474,6 +480,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="129"/>
+      </rPr>
       <t>话题评论</t>
     </r>
     <r>
@@ -526,6 +537,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="129"/>
+      </rPr>
       <t>话题评论回复</t>
     </r>
     <r>
@@ -582,11 +598,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="#,##0_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -655,80 +671,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -739,30 +681,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -784,6 +702,88 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -798,6 +798,22 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -820,6 +836,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -838,6 +872,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -868,25 +920,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -922,18 +962,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -958,25 +986,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1066,61 +1082,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1158,8 +1124,58 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1171,10 +1187,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1183,133 +1199,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1758,8 +1774,8 @@
   <sheetPr/>
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1928,8 +1944,12 @@
       <c r="D9" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
+      <c r="E9" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>25</v>
+      </c>
       <c r="G9" s="30"/>
       <c r="H9" s="34"/>
       <c r="I9" s="23"/>
@@ -1940,15 +1960,17 @@
         <v>3</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="30"/>
+      <c r="E10" s="30" t="s">
+        <v>20</v>
+      </c>
       <c r="F10" s="30"/>
       <c r="G10" s="30"/>
       <c r="H10" s="34"/>
@@ -1960,16 +1982,20 @@
         <v>4</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
+      <c r="E11" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>25</v>
+      </c>
       <c r="G11" s="30"/>
       <c r="H11" s="34"/>
       <c r="I11" s="23"/>
@@ -1980,13 +2006,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E12" s="30"/>
       <c r="F12" s="30"/>
@@ -2000,13 +2026,13 @@
         <v>6</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E13" s="30"/>
       <c r="F13" s="30"/>
@@ -2020,10 +2046,10 @@
         <v>7</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D14" s="30" t="s">
         <v>24</v>
@@ -2040,10 +2066,10 @@
         <v>8</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D15" s="30" t="s">
         <v>24</v>
@@ -2060,13 +2086,13 @@
         <v>9</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E16" s="30"/>
       <c r="F16" s="30"/>
@@ -2080,13 +2106,13 @@
         <v>10</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E17" s="30"/>
       <c r="F17" s="30"/>
@@ -2100,13 +2126,13 @@
         <v>11</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E18" s="30"/>
       <c r="F18" s="30"/>
@@ -2120,13 +2146,13 @@
         <v>12</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E19" s="30"/>
       <c r="F19" s="30"/>
@@ -2152,19 +2178,19 @@
         <v>2</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E21" s="30" t="s">
         <v>13</v>
       </c>
       <c r="F21" s="30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G21" s="30"/>
       <c r="H21" s="34"/>
@@ -2176,19 +2202,19 @@
         <v>3</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E22" s="30" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G22" s="30"/>
       <c r="H22" s="34"/>
@@ -2200,19 +2226,19 @@
         <v>4</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C23" s="36" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D23" s="37" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E23" s="37" t="s">
         <v>13</v>
       </c>
       <c r="F23" s="37" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G23" s="37"/>
       <c r="H23" s="38"/>
@@ -2224,19 +2250,19 @@
         <v>5</v>
       </c>
       <c r="B24" s="39" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E24" s="30" t="s">
         <v>13</v>
       </c>
       <c r="F24" s="30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G24" s="30"/>
       <c r="H24" s="34"/>
@@ -2248,19 +2274,19 @@
         <v>6</v>
       </c>
       <c r="B25" s="39" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E25" s="30" t="s">
         <v>13</v>
       </c>
       <c r="F25" s="30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G25" s="30"/>
       <c r="H25" s="34"/>
@@ -2272,19 +2298,19 @@
         <v>7</v>
       </c>
       <c r="B26" s="39" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E26" s="30" t="s">
         <v>13</v>
       </c>
       <c r="F26" s="30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G26" s="30"/>
       <c r="H26" s="34"/>
@@ -2296,19 +2322,19 @@
         <v>8</v>
       </c>
       <c r="B27" s="39" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C27" s="29" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E27" s="30" t="s">
         <v>13</v>
       </c>
       <c r="F27" s="30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G27" s="30"/>
       <c r="H27" s="34"/>
@@ -2320,19 +2346,19 @@
         <v>9</v>
       </c>
       <c r="B28" s="40" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C28" s="36" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D28" s="37" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E28" s="37" t="s">
         <v>13</v>
       </c>
       <c r="F28" s="37" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G28" s="37"/>
       <c r="H28" s="38"/>
@@ -2344,19 +2370,19 @@
         <v>10</v>
       </c>
       <c r="B29" s="40" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C29" s="36" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D29" s="37" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E29" s="37" t="s">
         <v>13</v>
       </c>
       <c r="F29" s="37" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G29" s="37"/>
       <c r="H29" s="38"/>
@@ -2368,19 +2394,19 @@
         <v>11</v>
       </c>
       <c r="B30" s="39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C30" s="29" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E30" s="30" t="s">
         <v>13</v>
       </c>
       <c r="F30" s="30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G30" s="30"/>
       <c r="H30" s="34"/>
@@ -2392,19 +2418,19 @@
         <v>12</v>
       </c>
       <c r="B31" s="39" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C31" s="29" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E31" s="30" t="s">
         <v>13</v>
       </c>
       <c r="F31" s="30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G31" s="30"/>
       <c r="H31" s="34"/>
@@ -2416,19 +2442,19 @@
         <v>13</v>
       </c>
       <c r="B32" s="40" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C32" s="36" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D32" s="37" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E32" s="37" t="s">
         <v>13</v>
       </c>
       <c r="F32" s="37" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G32" s="37"/>
       <c r="H32" s="38"/>
@@ -2440,19 +2466,19 @@
         <v>14</v>
       </c>
       <c r="B33" s="39" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C33" s="29" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D33" s="30" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E33" s="30" t="s">
         <v>13</v>
       </c>
       <c r="F33" s="30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G33" s="30"/>
       <c r="H33" s="34"/>
@@ -2464,19 +2490,19 @@
         <v>15</v>
       </c>
       <c r="B34" s="39" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C34" s="29" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D34" s="30" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E34" s="30" t="s">
         <v>13</v>
       </c>
       <c r="F34" s="30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G34" s="30"/>
       <c r="H34" s="34"/>
@@ -2488,22 +2514,22 @@
         <v>16</v>
       </c>
       <c r="B35" s="29" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C35" s="29" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D35" s="30" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E35" s="30" t="s">
         <v>13</v>
       </c>
       <c r="F35" s="30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G35" s="30" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H35" s="34"/>
       <c r="I35" s="23"/>
@@ -2514,19 +2540,19 @@
         <v>17</v>
       </c>
       <c r="B36" s="29" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C36" s="29" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D36" s="30" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E36" s="30" t="s">
         <v>13</v>
       </c>
       <c r="F36" s="30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G36" s="30"/>
       <c r="H36" s="34"/>
@@ -2538,22 +2564,22 @@
         <v>18</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C37" s="29" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D37" s="30" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E37" s="30" t="s">
         <v>13</v>
       </c>
       <c r="F37" s="30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G37" s="30" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H37" s="34"/>
       <c r="I37" s="23"/>
@@ -2636,8 +2662,8 @@
   <sheetPr/>
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2662,13 +2688,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="24" spans="1:8">
+    <row r="2" ht="22.5" spans="1:8">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="10"/>
@@ -2692,13 +2718,13 @@
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -2710,7 +2736,7 @@
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="18" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
@@ -2759,7 +2785,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C8" s="29" t="s">
         <v>18</v>
@@ -2781,13 +2807,13 @@
         <v>2</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E9" s="30"/>
       <c r="F9" s="30"/>
@@ -2799,13 +2825,13 @@
         <v>3</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E10" s="30"/>
       <c r="F10" s="30"/>
@@ -2817,13 +2843,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>19</v>
+        <v>103</v>
       </c>
       <c r="E11" s="30"/>
       <c r="F11" s="30"/>
@@ -2835,13 +2861,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E12" s="30"/>
       <c r="F12" s="30"/>
@@ -2853,13 +2879,13 @@
         <v>6</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C13" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="D13" s="30" t="s">
         <v>106</v>
-      </c>
-      <c r="D13" s="30" t="s">
-        <v>104</v>
       </c>
       <c r="E13" s="30"/>
       <c r="F13" s="30"/>
@@ -2871,10 +2897,10 @@
         <v>7</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D14" s="30" t="s">
         <v>19</v>
@@ -2889,13 +2915,13 @@
         <v>8</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E15" s="30"/>
       <c r="F15" s="30"/>
@@ -2907,10 +2933,10 @@
         <v>9</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D16" s="30" t="s">
         <v>19</v>
@@ -2925,13 +2951,13 @@
         <v>10</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E17" s="30"/>
       <c r="F17" s="30"/>
@@ -2944,13 +2970,13 @@
       </c>
       <c r="B20" s="13"/>
       <c r="C20" s="14" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D20" s="15" t="s">
         <v>5</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
@@ -2962,7 +2988,7 @@
       </c>
       <c r="B21" s="13"/>
       <c r="C21" s="18" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D21" s="18"/>
       <c r="E21" s="18"/>
@@ -3011,7 +3037,7 @@
         <v>1</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C24" s="29" t="s">
         <v>18</v>
@@ -3033,10 +3059,10 @@
         <v>2</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D25" s="30" t="s">
         <v>19</v>
@@ -3051,19 +3077,19 @@
         <v>3</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E26" s="30"/>
       <c r="F26" s="30"/>
       <c r="G26" s="30"/>
       <c r="H26" s="32" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -3071,13 +3097,13 @@
         <v>4</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C27" s="29" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E27" s="30"/>
       <c r="F27" s="30"/>
@@ -3089,10 +3115,10 @@
         <v>5</v>
       </c>
       <c r="B28" s="28" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C28" s="29" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D28" s="30" t="s">
         <v>19</v>
@@ -3101,7 +3127,7 @@
       <c r="F28" s="30"/>
       <c r="G28" s="30"/>
       <c r="H28" s="32" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -3109,13 +3135,13 @@
         <v>6</v>
       </c>
       <c r="B29" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C29" s="29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E29" s="30"/>
       <c r="F29" s="30"/>
@@ -3128,13 +3154,13 @@
       </c>
       <c r="B32" s="13"/>
       <c r="C32" s="14" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D32" s="15" t="s">
         <v>5</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F32" s="16"/>
       <c r="G32" s="16"/>
@@ -3146,7 +3172,7 @@
       </c>
       <c r="B33" s="13"/>
       <c r="C33" s="18" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D33" s="18"/>
       <c r="E33" s="18"/>
@@ -3195,7 +3221,7 @@
         <v>1</v>
       </c>
       <c r="B36" s="28" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C36" s="29" t="s">
         <v>18</v>
@@ -3217,10 +3243,10 @@
         <v>2</v>
       </c>
       <c r="B37" s="28" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C37" s="29" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D37" s="30" t="s">
         <v>19</v>
@@ -3235,10 +3261,10 @@
         <v>3</v>
       </c>
       <c r="B38" s="28" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C38" s="29" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D38" s="30" t="s">
         <v>19</v>
@@ -3247,7 +3273,7 @@
       <c r="F38" s="30"/>
       <c r="G38" s="30"/>
       <c r="H38" s="32" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="39" ht="49.5" spans="1:8">
@@ -3255,19 +3281,19 @@
         <v>4</v>
       </c>
       <c r="B39" s="28" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C39" s="29" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D39" s="30" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E39" s="30"/>
       <c r="F39" s="30"/>
       <c r="G39" s="30"/>
       <c r="H39" s="32" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3275,13 +3301,13 @@
         <v>5</v>
       </c>
       <c r="B40" s="28" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C40" s="29" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D40" s="30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E40" s="30"/>
       <c r="F40" s="30"/>
@@ -3293,10 +3319,10 @@
         <v>6</v>
       </c>
       <c r="B41" s="28" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C41" s="29" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D41" s="30" t="s">
         <v>19</v>
@@ -3305,7 +3331,7 @@
       <c r="F41" s="30"/>
       <c r="G41" s="30"/>
       <c r="H41" s="32" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="42" ht="24.75" spans="1:8">
@@ -3313,10 +3339,10 @@
         <v>7</v>
       </c>
       <c r="B42" s="28" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C42" s="29" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D42" s="30" t="s">
         <v>19</v>
@@ -3325,7 +3351,7 @@
       <c r="F42" s="30"/>
       <c r="G42" s="30"/>
       <c r="H42" s="32" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3333,13 +3359,13 @@
         <v>8</v>
       </c>
       <c r="B43" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C43" s="29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D43" s="30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E43" s="30"/>
       <c r="F43" s="30"/>

--- a/document/表结构.xlsx
+++ b/document/表结构.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10319"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sevenryuu/SevenHome/pjspace/RyuuProject/SevenFunny/document/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{1337C5A6-92B2-B449-8789-0C40D34252A5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20500" windowHeight="16100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="用户" sheetId="1" r:id="rId1"/>
@@ -15,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="144">
   <si>
     <t>七趣</t>
   </si>
@@ -596,15 +602,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="#,##0_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="177" formatCode="#,##0_ "/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -668,154 +670,16 @@
       <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="Verdana"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -834,194 +698,8 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1081,255 +759,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1375,140 +811,99 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1766,27 +1161,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="182" zoomScaleNormal="182" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="11.1666666666667" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="15.1666666666667" customWidth="1"/>
-    <col min="5" max="5" width="9.16666666666667" customWidth="1"/>
-    <col min="6" max="6" width="4.33333333333333" customWidth="1"/>
-    <col min="7" max="7" width="7.66666666666667" customWidth="1"/>
-    <col min="8" max="8" width="12.1666666666667" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" customWidth="1"/>
+    <col min="6" max="6" width="4.33203125" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1797,13 +1192,13 @@
       <c r="E1" s="4"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
-      <c r="H1" s="33" t="s">
+      <c r="H1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-    </row>
-    <row r="2" ht="22.5" spans="1:10">
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+    </row>
+    <row r="2" spans="1:10" ht="24">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
@@ -1831,819 +1226,819 @@
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
     </row>
-    <row r="4" customHeight="1" spans="1:10">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:10" ht="13.5" customHeight="1">
+      <c r="A4" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="13"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="14" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-    </row>
-    <row r="5" customHeight="1" spans="1:10">
-      <c r="A5" s="13" t="s">
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+    </row>
+    <row r="5" spans="1:10" ht="13.5" customHeight="1">
+      <c r="A5" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="18" t="s">
+      <c r="B5" s="38"/>
+      <c r="C5" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="19"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="22" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="25" t="s">
+      <c r="G7" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="25" t="s">
+      <c r="H7" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="27">
+      <c r="A8" s="24">
         <v>1</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="E8" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="30" t="s">
+      <c r="F8" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="30"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="27">
+      <c r="A9" s="24">
         <v>2</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="30" t="s">
+      <c r="F9" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="30"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="27">
+      <c r="A10" s="24">
         <v>3</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="30" t="s">
+      <c r="E10" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="27">
+      <c r="A11" s="24">
         <v>4</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="30" t="s">
+      <c r="F11" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="30"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="27">
+      <c r="A12" s="24">
         <v>5</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="27">
+      <c r="A13" s="24">
         <v>6</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="27">
+      <c r="A14" s="24">
         <v>7</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="27">
+      <c r="A15" s="24">
         <v>8</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="27">
+      <c r="A16" s="24">
         <v>9</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="30" t="s">
+      <c r="D16" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="27">
+      <c r="A17" s="24">
         <v>10</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="30" t="s">
+      <c r="D17" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="27">
+      <c r="A18" s="24">
         <v>11</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="30" t="s">
+      <c r="D18" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="27">
+      <c r="A19" s="24">
         <v>12</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="30" t="s">
+      <c r="D19" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="27"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
+      <c r="A20" s="24"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="27">
+      <c r="A21" s="24">
         <v>2</v>
       </c>
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="30" t="s">
+      <c r="D21" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="30" t="s">
+      <c r="E21" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="30" t="s">
+      <c r="F21" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="G21" s="30"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="27">
+      <c r="A22" s="24">
         <v>3</v>
       </c>
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="C22" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="30" t="s">
+      <c r="D22" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="E22" s="30" t="s">
+      <c r="E22" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="30" t="s">
+      <c r="F22" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="G22" s="30"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="35">
+      <c r="A23" s="32">
         <v>4</v>
       </c>
-      <c r="B23" s="36" t="s">
+      <c r="B23" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="36" t="s">
+      <c r="C23" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="37" t="s">
+      <c r="D23" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="E23" s="37" t="s">
+      <c r="E23" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="F23" s="37" t="s">
+      <c r="F23" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="G23" s="37"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="27">
+      <c r="A24" s="24">
         <v>5</v>
       </c>
-      <c r="B24" s="39" t="s">
+      <c r="B24" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="29" t="s">
+      <c r="C24" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="D24" s="30" t="s">
+      <c r="D24" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="E24" s="30" t="s">
+      <c r="E24" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="30" t="s">
+      <c r="F24" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="G24" s="30"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="27">
+      <c r="A25" s="24">
         <v>6</v>
       </c>
-      <c r="B25" s="39" t="s">
+      <c r="B25" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="29" t="s">
+      <c r="C25" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="D25" s="30" t="s">
+      <c r="D25" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="E25" s="30" t="s">
+      <c r="E25" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="F25" s="30" t="s">
+      <c r="F25" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="G25" s="30"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="27">
+      <c r="A26" s="24">
         <v>7</v>
       </c>
-      <c r="B26" s="39" t="s">
+      <c r="B26" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="29" t="s">
+      <c r="C26" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="D26" s="30" t="s">
+      <c r="D26" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="E26" s="30" t="s">
+      <c r="E26" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="F26" s="30" t="s">
+      <c r="F26" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="G26" s="30"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="27">
+      <c r="A27" s="24">
         <v>8</v>
       </c>
-      <c r="B27" s="39" t="s">
+      <c r="B27" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="29" t="s">
+      <c r="C27" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="D27" s="30" t="s">
+      <c r="D27" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="E27" s="30" t="s">
+      <c r="E27" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="F27" s="30" t="s">
+      <c r="F27" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="G27" s="30"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="35">
+      <c r="A28" s="32">
         <v>9</v>
       </c>
-      <c r="B28" s="40" t="s">
+      <c r="B28" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="C28" s="36" t="s">
+      <c r="C28" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="D28" s="37" t="s">
+      <c r="D28" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="E28" s="37" t="s">
+      <c r="E28" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="F28" s="37" t="s">
+      <c r="F28" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="G28" s="37"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="35">
+      <c r="A29" s="32">
         <v>10</v>
       </c>
-      <c r="B29" s="40" t="s">
+      <c r="B29" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="C29" s="36" t="s">
+      <c r="C29" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="D29" s="37" t="s">
+      <c r="D29" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="E29" s="37" t="s">
+      <c r="E29" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="F29" s="37" t="s">
+      <c r="F29" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="G29" s="37"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="27">
+      <c r="A30" s="24">
         <v>11</v>
       </c>
-      <c r="B30" s="39" t="s">
+      <c r="B30" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="C30" s="29" t="s">
+      <c r="C30" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="D30" s="30" t="s">
+      <c r="D30" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="E30" s="30" t="s">
+      <c r="E30" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="F30" s="30" t="s">
+      <c r="F30" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="G30" s="30"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="27">
+      <c r="A31" s="24">
         <v>12</v>
       </c>
-      <c r="B31" s="39" t="s">
+      <c r="B31" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="C31" s="29" t="s">
+      <c r="C31" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="D31" s="30" t="s">
+      <c r="D31" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="E31" s="30" t="s">
+      <c r="E31" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="F31" s="30" t="s">
+      <c r="F31" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="G31" s="30"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="23"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="35">
+      <c r="A32" s="32">
         <v>13</v>
       </c>
-      <c r="B32" s="40" t="s">
+      <c r="B32" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="C32" s="36" t="s">
+      <c r="C32" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="D32" s="37" t="s">
+      <c r="D32" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="E32" s="37" t="s">
+      <c r="E32" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="F32" s="37" t="s">
+      <c r="F32" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="G32" s="37"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="27">
+      <c r="A33" s="24">
         <v>14</v>
       </c>
-      <c r="B33" s="39" t="s">
+      <c r="B33" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="29" t="s">
+      <c r="C33" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="D33" s="30" t="s">
+      <c r="D33" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="E33" s="30" t="s">
+      <c r="E33" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="F33" s="30" t="s">
+      <c r="F33" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="G33" s="30"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="23"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="27">
+      <c r="A34" s="24">
         <v>15</v>
       </c>
-      <c r="B34" s="39" t="s">
+      <c r="B34" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="C34" s="29" t="s">
+      <c r="C34" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="D34" s="30" t="s">
+      <c r="D34" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="E34" s="30" t="s">
+      <c r="E34" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="F34" s="30" t="s">
+      <c r="F34" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="G34" s="30"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="27">
+      <c r="A35" s="24">
         <v>16</v>
       </c>
-      <c r="B35" s="29" t="s">
+      <c r="B35" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="C35" s="29" t="s">
+      <c r="C35" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="D35" s="30" t="s">
+      <c r="D35" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="E35" s="30" t="s">
+      <c r="E35" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="F35" s="30" t="s">
+      <c r="F35" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="G35" s="30" t="s">
+      <c r="G35" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="H35" s="34"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="27">
+      <c r="A36" s="24">
         <v>17</v>
       </c>
-      <c r="B36" s="29" t="s">
+      <c r="B36" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="C36" s="29" t="s">
+      <c r="C36" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="D36" s="30" t="s">
+      <c r="D36" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="E36" s="30" t="s">
+      <c r="E36" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="F36" s="30" t="s">
+      <c r="F36" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="G36" s="30"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="23"/>
-      <c r="J36" s="23"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="27">
+      <c r="A37" s="24">
         <v>18</v>
       </c>
-      <c r="B37" s="29" t="s">
+      <c r="B37" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="C37" s="29" t="s">
+      <c r="C37" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="D37" s="30" t="s">
+      <c r="D37" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="E37" s="30" t="s">
+      <c r="E37" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="F37" s="30" t="s">
+      <c r="F37" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="G37" s="30" t="s">
+      <c r="G37" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="H37" s="34"/>
-      <c r="I37" s="23"/>
-      <c r="J37" s="23"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="27"/>
-      <c r="B38" s="29"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="34"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="23"/>
-      <c r="J38" s="23"/>
+      <c r="A38" s="24"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="27"/>
-      <c r="B39" s="29"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="30"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="34"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="23"/>
+      <c r="A39" s="24"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="27"/>
-      <c r="B40" s="29"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="34"/>
-      <c r="H40" s="34"/>
-      <c r="I40" s="23"/>
-      <c r="J40" s="23"/>
+      <c r="A40" s="24"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="27"/>
-      <c r="B41" s="29"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="34"/>
-      <c r="H41" s="34"/>
-      <c r="I41" s="23"/>
-      <c r="J41" s="23"/>
+      <c r="A41" s="24"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="20"/>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="27"/>
-      <c r="B42" s="29"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="30"/>
-      <c r="G42" s="34"/>
-      <c r="H42" s="34"/>
-      <c r="I42" s="23"/>
-      <c r="J42" s="23"/>
+      <c r="A42" s="24"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2652,27 +2047,26 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:H5"/>
   </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" zoomScale="171" zoomScaleNormal="171" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="12.625" customWidth="1"/>
-    <col min="3" max="3" width="16.875" customWidth="1"/>
-    <col min="4" max="4" width="13.1666666666667" customWidth="1"/>
-    <col min="5" max="5" width="9.16666666666667" customWidth="1"/>
-    <col min="6" max="6" width="4.33333333333333" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" customWidth="1"/>
+    <col min="6" max="6" width="4.33203125" customWidth="1"/>
     <col min="8" max="8" width="29.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2688,7 +2082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="22.5" spans="1:8">
+    <row r="2" spans="1:8" ht="24">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
@@ -2713,681 +2107,683 @@
       <c r="H3" s="11"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="13"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="14" t="s">
         <v>92</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="17"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="41"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="18" t="s">
+      <c r="B5" s="38"/>
+      <c r="C5" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="19"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="24"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="21"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="22" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="25" t="s">
+      <c r="G7" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="26" t="s">
+      <c r="H7" s="23" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="27">
+      <c r="A8" s="24">
         <v>1</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="E8" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="30" t="s">
+      <c r="F8" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="30"/>
-      <c r="H8" s="31"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="28"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="27">
+      <c r="A9" s="24">
         <v>2</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="31"/>
+      <c r="E9" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="28"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="27">
+      <c r="A10" s="24">
         <v>3</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="31"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="28"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="27">
+      <c r="A11" s="24">
         <v>4</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="31"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="28"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="27">
+      <c r="A12" s="24">
         <v>5</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="31"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="28"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="27">
+      <c r="A13" s="24">
         <v>6</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="31"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="28"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="27">
+      <c r="A14" s="24">
         <v>7</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="31"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="28"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="27">
+      <c r="A15" s="24">
         <v>8</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="31"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="28"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="27">
+      <c r="A16" s="24">
         <v>9</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="D16" s="30" t="s">
+      <c r="D16" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="31"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="28"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="27">
+      <c r="A17" s="24">
         <v>10</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="30" t="s">
+      <c r="D17" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="31"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="28"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="13"/>
+      <c r="B20" s="38"/>
       <c r="C20" s="14" t="s">
         <v>113</v>
       </c>
       <c r="D20" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="17"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="41"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="18" t="s">
+      <c r="B21" s="38"/>
+      <c r="C21" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="19"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="24"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="21"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="22" t="s">
         <v>11</v>
       </c>
       <c r="D23" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="25" t="s">
+      <c r="E23" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F23" s="25" t="s">
+      <c r="F23" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="G23" s="25" t="s">
+      <c r="G23" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H23" s="26" t="s">
+      <c r="H23" s="23" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="27">
+      <c r="A24" s="24">
         <v>1</v>
       </c>
-      <c r="B24" s="28" t="s">
+      <c r="B24" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="C24" s="29" t="s">
+      <c r="C24" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="30" t="s">
+      <c r="D24" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="30" t="s">
+      <c r="E24" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="30" t="s">
+      <c r="F24" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="G24" s="30"/>
-      <c r="H24" s="31"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="28"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="27">
+      <c r="A25" s="24">
         <v>2</v>
       </c>
-      <c r="B25" s="28" t="s">
+      <c r="B25" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="C25" s="29" t="s">
+      <c r="C25" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="D25" s="30" t="s">
+      <c r="D25" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="31"/>
-    </row>
-    <row r="26" ht="24" spans="1:8">
-      <c r="A26" s="27">
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="28"/>
+    </row>
+    <row r="26" spans="1:8" ht="26">
+      <c r="A26" s="24">
         <v>3</v>
       </c>
-      <c r="B26" s="28" t="s">
+      <c r="B26" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="C26" s="29" t="s">
+      <c r="C26" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="D26" s="30" t="s">
+      <c r="D26" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="32" t="s">
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="29" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="27">
+      <c r="A27" s="24">
         <v>4</v>
       </c>
-      <c r="B27" s="28" t="s">
+      <c r="B27" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="C27" s="29" t="s">
+      <c r="C27" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="D27" s="30" t="s">
+      <c r="D27" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="31"/>
-    </row>
-    <row r="28" ht="24.75" spans="1:8">
-      <c r="A28" s="27">
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="28"/>
+    </row>
+    <row r="28" spans="1:8" ht="26">
+      <c r="A28" s="24">
         <v>5</v>
       </c>
-      <c r="B28" s="28" t="s">
+      <c r="B28" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="C28" s="29" t="s">
+      <c r="C28" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="D28" s="30" t="s">
+      <c r="D28" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="32" t="s">
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="29" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="27">
+      <c r="A29" s="24">
         <v>6</v>
       </c>
-      <c r="B29" s="28" t="s">
+      <c r="B29" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="29" t="s">
+      <c r="C29" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="D29" s="30" t="s">
+      <c r="D29" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="31"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="28"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="13"/>
+      <c r="B32" s="38"/>
       <c r="C32" s="14" t="s">
         <v>127</v>
       </c>
       <c r="D32" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="17"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="41"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="13"/>
-      <c r="C33" s="18" t="s">
+      <c r="B33" s="38"/>
+      <c r="C33" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="19"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="24"/>
+      <c r="A34" s="16"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="21"/>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B35" s="25" t="s">
+      <c r="B35" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C35" s="25" t="s">
+      <c r="C35" s="22" t="s">
         <v>11</v>
       </c>
       <c r="D35" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E35" s="25" t="s">
+      <c r="E35" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F35" s="25" t="s">
+      <c r="F35" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="G35" s="25" t="s">
+      <c r="G35" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H35" s="26" t="s">
+      <c r="H35" s="23" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="27">
+      <c r="A36" s="24">
         <v>1</v>
       </c>
-      <c r="B36" s="28" t="s">
+      <c r="B36" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="C36" s="29" t="s">
+      <c r="C36" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D36" s="30" t="s">
+      <c r="D36" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="E36" s="30" t="s">
+      <c r="E36" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="F36" s="30" t="s">
+      <c r="F36" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="G36" s="30"/>
-      <c r="H36" s="31"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="28"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="27">
+      <c r="A37" s="24">
         <v>2</v>
       </c>
-      <c r="B37" s="28" t="s">
+      <c r="B37" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="C37" s="29" t="s">
+      <c r="C37" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="D37" s="30" t="s">
+      <c r="D37" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="31"/>
-    </row>
-    <row r="38" ht="50.25" spans="1:8">
-      <c r="A38" s="27">
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="28"/>
+    </row>
+    <row r="38" spans="1:8" ht="52">
+      <c r="A38" s="24">
         <v>3</v>
       </c>
-      <c r="B38" s="28" t="s">
+      <c r="B38" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="C38" s="29" t="s">
+      <c r="C38" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="D38" s="30" t="s">
+      <c r="D38" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="32" t="s">
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="29" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="39" ht="49.5" spans="1:8">
-      <c r="A39" s="27">
+    <row r="39" spans="1:8" ht="52">
+      <c r="A39" s="24">
         <v>4</v>
       </c>
-      <c r="B39" s="28" t="s">
+      <c r="B39" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="C39" s="29" t="s">
+      <c r="C39" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="D39" s="30" t="s">
+      <c r="D39" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="E39" s="30"/>
-      <c r="F39" s="30"/>
-      <c r="G39" s="30"/>
-      <c r="H39" s="32" t="s">
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="29" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="27">
+      <c r="A40" s="24">
         <v>5</v>
       </c>
-      <c r="B40" s="28" t="s">
+      <c r="B40" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="C40" s="29" t="s">
+      <c r="C40" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="D40" s="30" t="s">
+      <c r="D40" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="31"/>
-    </row>
-    <row r="41" ht="24.75" spans="1:8">
-      <c r="A41" s="27">
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="28"/>
+    </row>
+    <row r="41" spans="1:8" ht="26">
+      <c r="A41" s="24">
         <v>6</v>
       </c>
-      <c r="B41" s="28" t="s">
+      <c r="B41" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="C41" s="29" t="s">
+      <c r="C41" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="D41" s="30" t="s">
+      <c r="D41" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="E41" s="30"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="32" t="s">
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="29" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="42" ht="24.75" spans="1:8">
-      <c r="A42" s="27">
+    <row r="42" spans="1:8" ht="26">
+      <c r="A42" s="24">
         <v>7</v>
       </c>
-      <c r="B42" s="28" t="s">
+      <c r="B42" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="C42" s="29" t="s">
+      <c r="C42" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="D42" s="30" t="s">
+      <c r="D42" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="E42" s="30"/>
-      <c r="F42" s="30"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="32" t="s">
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="29" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="27">
+      <c r="A43" s="24">
         <v>8</v>
       </c>
-      <c r="B43" s="28" t="s">
+      <c r="B43" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="C43" s="29" t="s">
+      <c r="C43" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="D43" s="30" t="s">
+      <c r="D43" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="31"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:H33"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="E4:H4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:H5"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="E20:H20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="E32:H32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:H33"/>
   </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/document/表结构.xlsx
+++ b/document/表结构.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10319"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sevenryuu/SevenHome/pjspace/RyuuProject/SevenFunny/document/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{1337C5A6-92B2-B449-8789-0C40D34252A5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD8518F4-A1B7-0743-ACB9-C2C9F453A6E6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="20500" windowHeight="16100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="用户" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="147">
   <si>
     <t>七趣</t>
   </si>
@@ -598,15 +598,27 @@
   <si>
     <t>是评论目标人的id，如果没有目标人，则该字段为空</t>
   </si>
+  <si>
+    <t>审核状态</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(1)</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="#,##0_ "/>
+    <numFmt numFmtId="176" formatCode="#,##0_ "/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -677,6 +689,18 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="굴림"/>
+      <family val="2"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="4">
@@ -765,7 +789,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -811,7 +835,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -891,6 +915,15 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1169,8 +1202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView zoomScale="182" zoomScaleNormal="182" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="182" zoomScaleNormal="182" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -2054,10 +2087,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="171" zoomScaleNormal="171" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView zoomScale="171" zoomScaleNormal="171" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -2070,7 +2103,7 @@
     <col min="8" max="8" width="29.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="15">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -2148,7 +2181,7 @@
       <c r="G6" s="20"/>
       <c r="H6" s="21"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" ht="15">
       <c r="A7" s="13" t="s">
         <v>9</v>
       </c>
@@ -2292,14 +2325,14 @@
       <c r="A14" s="24">
         <v>7</v>
       </c>
-      <c r="B14" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>19</v>
+      <c r="B14" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>145</v>
+      </c>
+      <c r="D14" s="44" t="s">
+        <v>146</v>
       </c>
       <c r="E14" s="27"/>
       <c r="F14" s="27"/>
@@ -2311,13 +2344,13 @@
         <v>8</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="E15" s="27"/>
       <c r="F15" s="27"/>
@@ -2329,13 +2362,13 @@
         <v>9</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>111</v>
+        <v>43</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>112</v>
+        <v>44</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E16" s="27"/>
       <c r="F16" s="27"/>
@@ -2347,320 +2380,320 @@
         <v>10</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>46</v>
+        <v>112</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="E17" s="27"/>
       <c r="F17" s="27"/>
       <c r="G17" s="27"/>
       <c r="H17" s="28"/>
     </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="38"/>
-      <c r="C20" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="41"/>
+    <row r="18" spans="1:8">
+      <c r="A18" s="24">
+        <v>11</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="28"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="38"/>
+      <c r="C21" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="41"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="38"/>
-      <c r="C21" s="40" t="s">
+      <c r="B22" s="38"/>
+      <c r="C22" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="16"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="21"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="16"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="21"/>
+    </row>
+    <row r="24" spans="1:8" ht="15">
+      <c r="A24" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B24" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C24" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D24" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="22" t="s">
+      <c r="E24" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F23" s="22" t="s">
+      <c r="F24" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="G23" s="22" t="s">
+      <c r="G24" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H23" s="23" t="s">
+      <c r="H24" s="23" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="24">
-        <v>1</v>
-      </c>
-      <c r="B24" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="C24" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="F24" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="G24" s="27"/>
-      <c r="H24" s="28"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>118</v>
+        <v>18</v>
       </c>
       <c r="D25" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
+      <c r="E25" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="27" t="s">
+        <v>21</v>
+      </c>
       <c r="G25" s="27"/>
       <c r="H25" s="28"/>
     </row>
-    <row r="26" spans="1:8" ht="26">
+    <row r="26" spans="1:8">
       <c r="A26" s="24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D26" s="27" t="s">
-        <v>121</v>
+        <v>19</v>
       </c>
       <c r="E26" s="27"/>
       <c r="F26" s="27"/>
       <c r="G26" s="27"/>
-      <c r="H26" s="29" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="H26" s="28"/>
+    </row>
+    <row r="27" spans="1:8" ht="28">
       <c r="A27" s="24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>42</v>
+        <v>121</v>
       </c>
       <c r="E27" s="27"/>
       <c r="F27" s="27"/>
       <c r="G27" s="27"/>
-      <c r="H27" s="28"/>
-    </row>
-    <row r="28" spans="1:8" ht="26">
+      <c r="H27" s="29" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="E28" s="27"/>
       <c r="F28" s="27"/>
       <c r="G28" s="27"/>
-      <c r="H28" s="29" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="H28" s="28"/>
+    </row>
+    <row r="29" spans="1:8" ht="28">
       <c r="A29" s="24">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>43</v>
+        <v>124</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="D29" s="27" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="E29" s="27"/>
       <c r="F29" s="27"/>
       <c r="G29" s="27"/>
-      <c r="H29" s="28"/>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="B32" s="38"/>
-      <c r="C32" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E32" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="41"/>
+      <c r="H29" s="29" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="24">
+        <v>6</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="28"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" s="38"/>
+      <c r="C33" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="41"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="38"/>
-      <c r="C33" s="40" t="s">
+      <c r="B34" s="38"/>
+      <c r="C34" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="40"/>
-      <c r="H33" s="40"/>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="16"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="21"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="40"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="13" t="s">
+      <c r="A35" s="16"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="21"/>
+    </row>
+    <row r="36" spans="1:8" ht="15">
+      <c r="A36" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B35" s="22" t="s">
+      <c r="B36" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C35" s="22" t="s">
+      <c r="C36" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D35" s="15" t="s">
+      <c r="D36" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E35" s="22" t="s">
+      <c r="E36" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F35" s="22" t="s">
+      <c r="F36" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="G35" s="22" t="s">
+      <c r="G36" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H35" s="23" t="s">
+      <c r="H36" s="23" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="24">
-        <v>1</v>
-      </c>
-      <c r="B36" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="C36" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="D36" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="E36" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="F36" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="G36" s="27"/>
-      <c r="H36" s="28"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C37" s="26" t="s">
-        <v>132</v>
+        <v>18</v>
       </c>
       <c r="D37" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
+      <c r="E37" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37" s="27" t="s">
+        <v>21</v>
+      </c>
       <c r="G37" s="27"/>
       <c r="H37" s="28"/>
     </row>
-    <row r="38" spans="1:8" ht="52">
+    <row r="38" spans="1:8">
       <c r="A38" s="24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D38" s="27" t="s">
         <v>19</v>
@@ -2668,77 +2701,75 @@
       <c r="E38" s="27"/>
       <c r="F38" s="27"/>
       <c r="G38" s="27"/>
-      <c r="H38" s="29" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="52">
+      <c r="H38" s="28"/>
+    </row>
+    <row r="39" spans="1:8" ht="56">
       <c r="A39" s="24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C39" s="26" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D39" s="27" t="s">
-        <v>121</v>
+        <v>19</v>
       </c>
       <c r="E39" s="27"/>
       <c r="F39" s="27"/>
       <c r="G39" s="27"/>
       <c r="H39" s="29" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="56">
       <c r="A40" s="24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C40" s="26" t="s">
-        <v>100</v>
+        <v>137</v>
       </c>
       <c r="D40" s="27" t="s">
-        <v>42</v>
+        <v>121</v>
       </c>
       <c r="E40" s="27"/>
       <c r="F40" s="27"/>
       <c r="G40" s="27"/>
-      <c r="H40" s="28"/>
-    </row>
-    <row r="41" spans="1:8" ht="26">
+      <c r="H40" s="29" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="24">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C41" s="26" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="D41" s="27" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="E41" s="27"/>
       <c r="F41" s="27"/>
       <c r="G41" s="27"/>
-      <c r="H41" s="29" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="26">
+      <c r="H41" s="28"/>
+    </row>
+    <row r="42" spans="1:8" ht="28">
       <c r="A42" s="24">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C42" s="26" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="D42" s="27" t="s">
         <v>19</v>
@@ -2747,41 +2778,61 @@
       <c r="F42" s="27"/>
       <c r="G42" s="27"/>
       <c r="H42" s="29" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="28">
       <c r="A43" s="24">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>43</v>
+        <v>141</v>
       </c>
       <c r="C43" s="26" t="s">
-        <v>44</v>
+        <v>142</v>
       </c>
       <c r="D43" s="27" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="E43" s="27"/>
       <c r="F43" s="27"/>
       <c r="G43" s="27"/>
-      <c r="H43" s="28"/>
+      <c r="H43" s="29" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="24">
+        <v>8</v>
+      </c>
+      <c r="B44" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D44" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="E32:H32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:H33"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="E4:H4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:H5"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="E33:H33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:H34"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/document/表结构.xlsx
+++ b/document/表结构.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sevenryuu/SevenHome/pjspace/RyuuProject/SevenFunny/document/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD8518F4-A1B7-0743-ACB9-C2C9F453A6E6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1384E35-FFC5-4B4A-9243-E9106A4A9E8E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="用户" sheetId="1" r:id="rId1"/>
     <sheet name="话题" sheetId="2" r:id="rId2"/>
+    <sheet name="吐槽" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="165">
   <si>
     <t>七趣</t>
   </si>
@@ -610,6 +611,78 @@
     <t>CHAR(1)</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
+  <si>
+    <t>sevenfunny_roast</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>吐槽表</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>吐槽详情</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>_id</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布人昵称</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>nickname</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>点赞量</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>分享数</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>share_cnt</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>thumbsup_cnt</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否可见</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>state</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>吐槽内容</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>整型</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>sf_roast</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -618,7 +691,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="#,##0_ "/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -697,6 +770,20 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="굴림"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <name val="굴림"/>
       <family val="2"/>
@@ -789,7 +876,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -907,6 +994,18 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -916,13 +1015,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1202,8 +1304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="182" zoomScaleNormal="182" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView topLeftCell="A28" zoomScale="182" zoomScaleNormal="182" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1260,38 +1362,38 @@
       <c r="J3" s="11"/>
     </row>
     <row r="4" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="38"/>
+      <c r="B4" s="42"/>
       <c r="C4" s="14" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="39" t="s">
+      <c r="E4" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
       <c r="I4" s="20"/>
       <c r="J4" s="20"/>
     </row>
     <row r="5" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="40" t="s">
+      <c r="B5" s="42"/>
+      <c r="C5" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
       <c r="I5" s="20"/>
       <c r="J5" s="20"/>
     </row>
@@ -2089,7 +2191,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView zoomScale="171" zoomScaleNormal="171" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="171" zoomScaleNormal="171" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -2140,36 +2242,36 @@
       <c r="H3" s="11"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="38"/>
+      <c r="B4" s="42"/>
       <c r="C4" s="14" t="s">
         <v>92</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="39" t="s">
+      <c r="E4" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="41"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="45"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="40" t="s">
+      <c r="B5" s="42"/>
+      <c r="C5" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="16"/>
@@ -2325,13 +2427,13 @@
       <c r="A14" s="24">
         <v>7</v>
       </c>
-      <c r="B14" s="42" t="s">
+      <c r="B14" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="C14" s="43" t="s">
+      <c r="C14" s="40" t="s">
         <v>145</v>
       </c>
-      <c r="D14" s="44" t="s">
+      <c r="D14" s="41" t="s">
         <v>146</v>
       </c>
       <c r="E14" s="27"/>
@@ -2412,36 +2514,36 @@
       <c r="H18" s="28"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="38" t="s">
+      <c r="A21" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="38"/>
+      <c r="B21" s="42"/>
       <c r="C21" s="14" t="s">
         <v>113</v>
       </c>
       <c r="D21" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="39" t="s">
+      <c r="E21" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="41"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="45"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="38" t="s">
+      <c r="A22" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="38"/>
-      <c r="C22" s="40" t="s">
+      <c r="B22" s="42"/>
+      <c r="C22" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="16"/>
@@ -2596,36 +2698,36 @@
       <c r="H30" s="28"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="38" t="s">
+      <c r="A33" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="38"/>
+      <c r="B33" s="42"/>
       <c r="C33" s="14" t="s">
         <v>127</v>
       </c>
       <c r="D33" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E33" s="39" t="s">
+      <c r="E33" s="43" t="s">
         <v>128</v>
       </c>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="41"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="45"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="38" t="s">
+      <c r="A34" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B34" s="38"/>
-      <c r="C34" s="40" t="s">
+      <c r="B34" s="42"/>
+      <c r="C34" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="D34" s="40"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="40"/>
-      <c r="H34" s="40"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="16"/>
@@ -2821,20 +2923,357 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="E33:H33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:H34"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="E4:H4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:H5"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="E21:H21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:H22"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="E33:H33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:H34"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A977D67D-07DD-F54F-A271-1D9E8D917F1E}">
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="171" zoomScaleNormal="171" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <cols>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" customWidth="1"/>
+    <col min="6" max="6" width="4.33203125" customWidth="1"/>
+    <col min="8" max="8" width="29.5" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="24">
+      <c r="A2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="12"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="42"/>
+      <c r="C4" s="47" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="49" t="s">
+        <v>164</v>
+      </c>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="45"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="42"/>
+      <c r="C5" s="48" t="s">
+        <v>149</v>
+      </c>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="16"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="21"/>
+    </row>
+    <row r="7" spans="1:8" ht="15">
+      <c r="A7" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="24">
+        <v>1</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="27"/>
+      <c r="H8" s="28"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="24">
+        <v>2</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="28"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="24">
+        <v>3</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="28"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="24">
+        <v>4</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>163</v>
+      </c>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="28"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="24">
+        <v>5</v>
+      </c>
+      <c r="B12" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="C12" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>163</v>
+      </c>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="28"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="24">
+        <v>6</v>
+      </c>
+      <c r="B13" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>157</v>
+      </c>
+      <c r="D13" s="41" t="s">
+        <v>163</v>
+      </c>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="28"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="24">
+        <v>7</v>
+      </c>
+      <c r="B14" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>159</v>
+      </c>
+      <c r="D14" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="28"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="24">
+        <v>8</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="D15" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="28"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="24">
+        <v>9</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="41" t="s">
+        <v>162</v>
+      </c>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="28"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="24">
+        <v>10</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="D17" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="28"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="24">
+        <v>11</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="41" t="s">
+        <v>162</v>
+      </c>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:H5"/>
+  </mergeCells>
+  <phoneticPr fontId="14" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>
--- a/document/表结构.xlsx
+++ b/document/表结构.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sevenryuu/SevenHome/pjspace/RyuuProject/SevenFunny/document/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1384E35-FFC5-4B4A-9243-E9106A4A9E8E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC6CC19-2A41-024F-AAEF-6F5803FA3E00}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="用户" sheetId="1" r:id="rId1"/>
@@ -1003,6 +1003,12 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1015,17 +1021,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1362,38 +1362,38 @@
       <c r="J3" s="11"/>
     </row>
     <row r="4" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="42"/>
+      <c r="B4" s="44"/>
       <c r="C4" s="14" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="43" t="s">
+      <c r="E4" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
       <c r="I4" s="20"/>
       <c r="J4" s="20"/>
     </row>
     <row r="5" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="44" t="s">
+      <c r="B5" s="44"/>
+      <c r="C5" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
       <c r="I5" s="20"/>
       <c r="J5" s="20"/>
     </row>
@@ -2191,8 +2191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="171" zoomScaleNormal="171" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="171" zoomScaleNormal="171" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -2242,36 +2242,36 @@
       <c r="H3" s="11"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="42"/>
+      <c r="B4" s="44"/>
       <c r="C4" s="14" t="s">
         <v>92</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="43" t="s">
+      <c r="E4" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="47"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="44" t="s">
+      <c r="B5" s="44"/>
+      <c r="C5" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="16"/>
@@ -2514,36 +2514,36 @@
       <c r="H18" s="28"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="42" t="s">
+      <c r="A21" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="42"/>
+      <c r="B21" s="44"/>
       <c r="C21" s="14" t="s">
         <v>113</v>
       </c>
       <c r="D21" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="43" t="s">
+      <c r="E21" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="47"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="42" t="s">
+      <c r="A22" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="42"/>
-      <c r="C22" s="44" t="s">
+      <c r="B22" s="44"/>
+      <c r="C22" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="16"/>
@@ -2698,36 +2698,36 @@
       <c r="H30" s="28"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="42" t="s">
+      <c r="A33" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="42"/>
+      <c r="B33" s="44"/>
       <c r="C33" s="14" t="s">
         <v>127</v>
       </c>
       <c r="D33" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E33" s="43" t="s">
+      <c r="E33" s="45" t="s">
         <v>128</v>
       </c>
-      <c r="F33" s="43"/>
-      <c r="G33" s="43"/>
-      <c r="H33" s="45"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="47"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="42" t="s">
+      <c r="A34" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B34" s="42"/>
-      <c r="C34" s="44" t="s">
+      <c r="B34" s="44"/>
+      <c r="C34" s="46" t="s">
         <v>129</v>
       </c>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="44"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="46"/>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="16"/>
@@ -2923,21 +2923,22 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="E21:H21"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="C22:H22"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="E33:H33"/>
     <mergeCell ref="A34:B34"/>
     <mergeCell ref="C34:H34"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="E21:H21"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -2945,8 +2946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A977D67D-07DD-F54F-A271-1D9E8D917F1E}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="171" zoomScaleNormal="171" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:C18"/>
+    <sheetView zoomScale="171" zoomScaleNormal="171" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -2976,7 +2977,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="8"/>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="42" t="s">
         <v>147</v>
       </c>
       <c r="D2" s="9"/>
@@ -2996,36 +2997,36 @@
       <c r="H3" s="11"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="47" t="s">
+      <c r="B4" s="44"/>
+      <c r="C4" s="43" t="s">
         <v>148</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="49" t="s">
+      <c r="E4" s="48" t="s">
         <v>164</v>
       </c>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="47"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="48" t="s">
+      <c r="B5" s="44"/>
+      <c r="C5" s="49" t="s">
         <v>149</v>
       </c>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="16"/>
